--- a/src/static/data.xlsx
+++ b/src/static/data.xlsx
@@ -1,109 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\estimate_price_phone_bot\src\static\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14205"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14205" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>capacity</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>memory</t>
-  </si>
-  <si>
-    <t>document</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>Iphone 15 pro max</t>
-  </si>
-  <si>
-    <t>Apple</t>
-  </si>
-  <si>
-    <t>256 GB</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        90%-100%</t>
-  </si>
-  <si>
-    <t>🪪 Pasport kopiya</t>
-  </si>
-  <si>
-    <t>USA | LL</t>
-  </si>
-  <si>
-    <t>✅ Yo'q, Yetmagan</t>
-  </si>
-  <si>
-    <t>550$</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -136,27 +68,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -422,90 +413,130 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="10" width="15.5703125" customWidth="1"/>
+    <col width="22.28515625" customWidth="1" min="1" max="1"/>
+    <col width="16.5703125" customWidth="1" min="2" max="2"/>
+    <col width="15.5703125" customWidth="1" min="3" max="3"/>
+    <col width="15.7109375" customWidth="1" min="4" max="4"/>
+    <col width="14.85546875" customWidth="1" min="5" max="5"/>
+    <col width="20.42578125" customWidth="1" min="6" max="6"/>
+    <col width="17.7109375" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="15.5703125" customWidth="1" min="9" max="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+    <row r="1" ht="29.25" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>capacity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>document</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="n"/>
+      <c r="K1" s="1" t="n"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Iphone 15 pro max</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        90%-100%</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>256 GB</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>🪪 Pasport kopiya</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>USA | LL</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>✅ Yo'q, Yetmagan</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>550$</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/src/static/data.xlsx
+++ b/src/static/data.xlsx
@@ -9,19 +9,27 @@
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <charset val="204"/>
       <family val="2"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -67,12 +75,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -418,16 +429,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="22.28515625" customWidth="1" min="1" max="1"/>
-    <col width="16.5703125" customWidth="1" min="2" max="2"/>
+    <col width="21.85546875" customWidth="1" min="2" max="2"/>
     <col width="15.5703125" customWidth="1" min="3" max="3"/>
     <col width="15.7109375" customWidth="1" min="4" max="4"/>
     <col width="14.85546875" customWidth="1" min="5" max="5"/>
@@ -440,12 +451,12 @@
     <row r="1" ht="29.25" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>category</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -487,16 +498,16 @@
       <c r="K1" s="1" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>Iphone 15 pro max</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Apple</t>
-        </is>
-      </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">        90%-100%</t>
@@ -529,11 +540,199 @@
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>550$</t>
+          <t>1450$</t>
         </is>
       </c>
       <c r="J2" s="2" t="n"/>
       <c r="K2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Iphone 14 pro max</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        90%-100%</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>256 GB</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>🪪 Pasport kopiya</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>USA | LL</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>✅ Yo'q, Yetmagan</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>1350$</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Iphone 13 pro max</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        90%-100%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>256 GB</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>🪪 Pasport kopiya</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>USA | LL</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>✅ Yo'q, Yetmagan</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1250$</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Iphone 15 pro</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        90%-100%</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>256 GB</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>🪪 Pasport kopiya</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>USA | LL</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>✅ Yo'q, Yetmagan</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1350$</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Iphone 14 pro</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        90%-100%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>256 GB</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>🪪 Pasport kopiya</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>USA | LL</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>✅ Yo'q, Yetmagan</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1150$</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
